--- a/data/trans_bre/P38_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P38_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -562,22 +566,32 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M5</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>M4</t>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,99</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,56</t>
+          <t>13,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,63%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>0,87%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>29,85%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,54; 6,33</t>
+          <t>-11,73; 14,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 15,77</t>
+          <t>-9,21; 9,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 20,59</t>
+          <t>-0,41; 30,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-32,6; 19,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 34,5</t>
+          <t>-26,36; 51,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,42; 51,48</t>
+          <t>-20,45; 30,69</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-1,02; 91,94</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,51</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,13</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>22,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>49,47%</t>
+          <t>34,18%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>29,12%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 7,05</t>
+          <t>-2,33; 9,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 12,78</t>
+          <t>0,26; 9,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,13; 14,36</t>
+          <t>0,33; 14,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 55,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,54; 46,01</t>
+          <t>-13,77; 81,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,92; 90,83</t>
+          <t>0,69; 84,61</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1,49; 69,9</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,39</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>33,66%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>28,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>22,77%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,57%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 8,68</t>
+          <t>-2,33; 9,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 9,86</t>
+          <t>-2,12; 8,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 11,02</t>
+          <t>-7,82; 7,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 91,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 28,98</t>
+          <t>-15,98; 99,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 48,92</t>
+          <t>-11,94; 65,79</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-24,56; 30,73</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,1</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,64</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,59%</t>
+          <t>30,39%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-0,06%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 5,65</t>
+          <t>-3,39; 6,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,83; 11,17</t>
+          <t>-2,09; 12,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,68; 13,4</t>
+          <t>-8,21; 8,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 33,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,15; 31,92</t>
+          <t>-16,83; 41,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,18; 55,75</t>
+          <t>-10,09; 84,97</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-20,57; 27,15</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,34</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,88</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14,15%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>22,29%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15,69%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 5,69</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,03; 7,56</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,47; 9,66</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-3,77; 33,35</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4,59; 42,47</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1,34; 34,37</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P38_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P38_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,175 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>13,05</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,3%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,87%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>29,85%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.7679752755093472</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.6956011519852701</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>13.23120711796142</v>
+      </c>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="6" t="n">
+        <v>0.02122477491820538</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.01760830089957774</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.3016915105648704</v>
+      </c>
+      <c r="J4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-11,73; 14,6</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-9,21; 9,9</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,41; 30,2</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-26,36; 51,47</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-20,45; 30,69</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-1,02; 91,94</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-11.20962689374974</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-8.894876279891104</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.6345437135872154</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="6" t="n">
+        <v>-0.2579330995995361</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.2019264836656904</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.01454585663432362</v>
+      </c>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.85604844742238</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>9.896121435101673</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>30.56791470075322</v>
+      </c>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="6" t="n">
+        <v>0.4956918921586348</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.2950104598942093</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.9010856687541813</v>
+      </c>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,47</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,93</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7,1</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>22,76%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>34,18%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>29,12%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,33; 9,69</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,26; 9,97</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,33; 14,37</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-13,77; 81,29</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,69; 84,61</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>1,49; 69,9</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>1.833864220905204</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.742741196079805</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>7.234764024059482</v>
+      </c>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="6" t="n">
+        <v>0.116830063233123</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.3280066438546549</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.3017561016022328</v>
+      </c>
+      <c r="J7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,56</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,48</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,16</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>28,1%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>22,77%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-0,57%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.622988713130558</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.1698041304789464</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.5419799998963719</v>
+      </c>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="6" t="n">
+        <v>-0.2049347513375113</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.002867429536254395</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.02108429762122653</v>
+      </c>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,33; 9,3</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,12; 8,55</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,82; 7,2</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-15,98; 99,23</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-11,94; 65,79</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-24,56; 30,73</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.008688159627848</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>9.943146901217562</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>14.48645188036421</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="6" t="n">
+        <v>0.6294819649868675</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.853656290993258</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.7163987981023076</v>
+      </c>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +803,187 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,25</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,5</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>6,66%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>30,39%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-0,06%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>3.887039612622481</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.579880524877743</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.3598770105136873</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="6" t="n">
+        <v>0.3129385828947379</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.2317855381820948</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.01300435952212237</v>
+      </c>
+      <c r="J10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,39; 6,64</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,09; 12,24</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-8,21; 8,54</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-16,83; 41,25</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-10,09; 84,97</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-20,57; 27,15</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.84875913138485</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.098344669089088</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-8.307581050848308</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="6" t="n">
+        <v>-0.1364458799784392</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1255584003305175</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2547084149446609</v>
+      </c>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.915315097527323</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.965779709261215</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.979081918177236</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="6" t="n">
+        <v>1.045106758038035</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.6710958598153487</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.2963915066945739</v>
+      </c>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,6</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,34</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,88</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>14,15%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>22,29%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>15,69%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 5,69</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,03; 7,56</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,47; 9,66</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-3,77; 33,35</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>4,59; 42,47</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>1,34; 34,37</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.933269011467377</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>4.0669712329231</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.256121356064527</v>
+      </c>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="6" t="n">
+        <v>0.1642561853719252</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.2046333270001777</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.2496889806238515</v>
+      </c>
+      <c r="J13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.294540032637024</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.4888919727299386</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.906667847713149</v>
+      </c>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="6" t="n">
+        <v>-0.06858349381712087</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.0207230146646572</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.05896130658228999</v>
+      </c>
+      <c r="J14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.158539660745948</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.558225030625618</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>12.58221312405351</v>
+      </c>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="6" t="n">
+        <v>0.4626865712078649</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.4291761958321504</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.4717698738404327</v>
+      </c>
+      <c r="J15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
